--- a/src/data_add/users.xlsx
+++ b/src/data_add/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>User_name</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Yuvabe</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2025-03-01</t>
@@ -91,6 +88,9 @@
   <si>
     <t xml:space="preserve">[{"id":"YB-93-M ","type":"Monitor"},{"id":"YB-90-L","type":"Laptop"},{"id":"YB-73-MS","type":"Mouse"},{"id":"YB-78-H","type":"Headphone"}]
 </t>
+  </si>
+  <si>
+    <t>HR</t>
   </si>
   <si>
     <t>Dhanush</t>
@@ -116,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +128,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -158,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -166,23 +172,26 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,16 +503,16 @@
   <cols>
     <col min="1" max="1" style="7" width="17.433571428571426" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="7" width="30.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -542,83 +551,79 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="2">
         <v>45360</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="2">
         <v>45280</v>
       </c>
@@ -626,7 +631,7 @@
         <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>29</v>

--- a/src/data_add/users.xlsx
+++ b/src/data_add/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>User_name</t>
   </si>
@@ -43,35 +43,32 @@
     <t>role</t>
   </si>
   <si>
-    <t>Hariprasath</t>
-  </si>
-  <si>
-    <t>hariprasath@yuvabe.com</t>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>arun@yuvabe.com</t>
   </si>
   <si>
     <t>Yuvabe</t>
   </si>
   <si>
-    <t>2025-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[{"id":"YB-98-M ","type":"Monitor"},{"id":"YB-91-L","type":"Laptop"},{"id":"YB-91-MS","type":"Mouse"},{"id":"YB78-H","type":"Headphone"}]
+    <t xml:space="preserve">[{"id":"YB-99-M ","type":"Monitor"},{"id":"YB-92-L","type":"Laptop"},{"id":"YB-92-MS","type":"Mouse"},{"id":"YB-79-H","type":"Headphone"}]
 </t>
   </si>
   <si>
-    <t>AI/ML</t>
+    <t>Bevolve</t>
   </si>
   <si>
     <t>Member</t>
   </si>
   <si>
-    <t>Anupama</t>
-  </si>
-  <si>
-    <t>anupama@yuvabe.com</t>
-  </si>
-  <si>
-    <t>f9`f1J5^YL{t</t>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>hp@yuvabe.com</t>
+  </si>
+  <si>
+    <t>[{"id":"YB-100-M ","type":"Monitor"},{"id":"YB-93-L","type":"Laptop"},{"id":"YB-93-MS","type":"Mouse"},{"id":"YB-80-H","type":"Headphone"}]</t>
   </si>
   <si>
     <t>Mentor</t>
@@ -80,26 +77,23 @@
     <t>ShriJayaram</t>
   </si>
   <si>
-    <t>srijayaram@yuvabe.com</t>
-  </si>
-  <si>
-    <t>0£`:xWg2[1=N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[{"id":"YB-93-M ","type":"Monitor"},{"id":"YB-90-L","type":"Laptop"},{"id":"YB-73-MS","type":"Mouse"},{"id":"YB-78-H","type":"Headphone"}]
+    <t>shrijayaram@yuvabe.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"id":"YB-93-M ","type":"Monitor"},{"id":"YB-90-L","type":"Laptop"},{"id":"YB-73-MS","type":"Mouse"},{"id":"YB-79-H","type":"Headphone"}]
 </t>
   </si>
   <si>
+    <t>AI/Tech</t>
+  </si>
+  <si>
     <t>HR</t>
   </si>
   <si>
     <t>Dhanush</t>
   </si>
   <si>
-    <t>Dhanush@yuvabe.com</t>
-  </si>
-  <si>
-    <t>2{@Gl(HMHv69</t>
+    <t>dhanush@yuvabe.com</t>
   </si>
   <si>
     <t xml:space="preserve">[{"id":"YB-83-M ","type":"Monitor"},{"id":"YB-70-L","type":"Laptop"},{"id":"YB-61-MS","type":"Mouse"},{"id":"YB-58-H","type":"Headphone"}]
@@ -107,6 +101,63 @@
   </si>
   <si>
     <t>Team Lead</t>
+  </si>
+  <si>
+    <t>Thamarai</t>
+  </si>
+  <si>
+    <t>thamaraikannan@yuvabe.com</t>
+  </si>
+  <si>
+    <t>[{"id":"YB-84-M ","type":"Monitor"},{"id":"YB-71-L","type":"Laptop"},{"id":"YB-62-MS","type":"Mouse"},{"id":"YB-59-H","type":"Headphone"}]</t>
+  </si>
+  <si>
+    <t>Bevlove</t>
+  </si>
+  <si>
+    <t>Abinesh</t>
+  </si>
+  <si>
+    <t>abineshkumar@yuvabe.com</t>
+  </si>
+  <si>
+    <t>[{"id":"YB-85-M ","type":"Monitor"},{"id":"YB-72-L","type":"Laptop"},{"id":"YB-63-MS","type":"Mouse"},{"id":"YB-60-H","type":"Headphone"}]</t>
+  </si>
+  <si>
+    <t>Sheik</t>
+  </si>
+  <si>
+    <t>sheik@yuvabe.com</t>
+  </si>
+  <si>
+    <t>[{"id":"YB-86-M ","type":"Monitor"},{"id":"YB-73-L","type":"Laptop"},{"id":"YB-64-MS","type":"Mouse"},{"id":"YB-61-H","type":"Headphone"}]</t>
+  </si>
+  <si>
+    <t>Keerthana</t>
+  </si>
+  <si>
+    <t>keerthana@yuvabe.com</t>
+  </si>
+  <si>
+    <t>[{"id":"YB-87-M ","type":"Monitor"},{"id":"YB-74-L","type":"Laptop"},{"id":"YB-65-MS","type":"Mouse"},{"id":"YB-62-H","type":"Headphone"}]</t>
+  </si>
+  <si>
+    <t>Chittu</t>
+  </si>
+  <si>
+    <t>chittrarasu@yuvabe.com</t>
+  </si>
+  <si>
+    <t>[{"id":"YB-88-M ","type":"Monitor"},{"id":"YB-75-L","type":"Laptop"},{"id":"YB-66-MS","type":"Mouse"},{"id":"YB-63-H","type":"Headphone"}]</t>
+  </si>
+  <si>
+    <t>Safiq</t>
+  </si>
+  <si>
+    <t>safiq@yuvabe.com</t>
+  </si>
+  <si>
+    <t>[{"id":"YB-89-M ","type":"Monitor"},{"id":"YB-76-L","type":"Laptop"},{"id":"YB-67-MS","type":"Mouse"},{"id":"YB-64-H","type":"Headphone"}]</t>
   </si>
 </sst>
 </file>
@@ -116,7 +167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,12 +179,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -164,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -172,26 +217,17 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,24 +531,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="30.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="123.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="13.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -553,88 +589,240 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2">
+        <v>45537</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2">
+        <v>45505</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2">
+        <v>45294</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2">
+        <v>45294</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2">
+        <v>45505</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2">
-        <v>45360</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2">
+        <v>45748</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2">
+        <v>44986</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2">
+        <v>45748</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2">
+        <v>45566</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2">
-        <v>45280</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/data_add/users.xlsx
+++ b/src/data_add/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>User_name</t>
   </si>
@@ -52,7 +52,7 @@
     <t>Yuvabe</t>
   </si>
   <si>
-    <t xml:space="preserve">[{"id":"YB-99-M ","type":"Monitor"},{"id":"YB-92-L","type":"Laptop"},{"id":"YB-92-MS","type":"Mouse"},{"id":"YB-79-H","type":"Headphone"}]
+    <t xml:space="preserve">[{"id":"YB-99-M ","type":"Monitor"},{"id":"YB-92-L","type":"Laptop"},{"id":"YB-92-MS","type":"Mouse"},{"id":"YB-39-H","type":"Headphone"}]
 </t>
   </si>
   <si>
@@ -74,90 +74,93 @@
     <t>Mentor</t>
   </si>
   <si>
-    <t>ShriJayaram</t>
-  </si>
-  <si>
-    <t>shrijayaram@yuvabe.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[{"id":"YB-93-M ","type":"Monitor"},{"id":"YB-90-L","type":"Laptop"},{"id":"YB-73-MS","type":"Mouse"},{"id":"YB-79-H","type":"Headphone"}]
+    <t>Hariharan</t>
+  </si>
+  <si>
+    <t>hariharan@quilt.ai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"id":"YB-11-M ","type":"Monitor"},{"id":"YB-11-L","type":"Laptop"},{"id":"YB-11-MS","type":"Mouse"},{"id":"YB-11-H","type":"Headphone"}]
 </t>
   </si>
   <si>
+    <t>Quilt</t>
+  </si>
+  <si>
+    <t>Sub Mentor</t>
+  </si>
+  <si>
+    <t>vijay</t>
+  </si>
+  <si>
+    <t>vijay@quilt.ai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"id":"YB-12-M ","type":"Monitor"},{"id":"YB-12-L","type":"Laptop"},{"id":"YB-12-MS","type":"Mouse"},{"id":"YB-12-H","type":"Headphone"}]
+</t>
+  </si>
+  <si>
+    <t>Thamarai</t>
+  </si>
+  <si>
+    <t>thamaraikannan@yuvabe.com</t>
+  </si>
+  <si>
+    <t>[{"id":"YB-84-M ","type":"Monitor"},{"id":"YB-71-L","type":"Laptop"},{"id":"YB-62-MS","type":"Mouse"},{"id":"YB-59-H","type":"Headphone"}]</t>
+  </si>
+  <si>
+    <t>Bevlove</t>
+  </si>
+  <si>
+    <t>Abinesh</t>
+  </si>
+  <si>
+    <t>abineshkumar@yuvabe.com</t>
+  </si>
+  <si>
+    <t>[{"id":"YB-85-M ","type":"Monitor"},{"id":"YB-72-L","type":"Laptop"},{"id":"YB-63-MS","type":"Mouse"},{"id":"YB-60-H","type":"Headphone"}]</t>
+  </si>
+  <si>
     <t>AI/Tech</t>
   </si>
   <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Dhanush</t>
-  </si>
-  <si>
-    <t>dhanush@yuvabe.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[{"id":"YB-83-M ","type":"Monitor"},{"id":"YB-70-L","type":"Laptop"},{"id":"YB-61-MS","type":"Mouse"},{"id":"YB-58-H","type":"Headphone"}]
-</t>
+    <t>Sheik</t>
+  </si>
+  <si>
+    <t>sheik@yuvabe.com</t>
+  </si>
+  <si>
+    <t>[{"id":"YB-86-M ","type":"Monitor"},{"id":"YB-73-L","type":"Laptop"},{"id":"YB-64-MS","type":"Mouse"},{"id":"YB-61-H","type":"Headphone"}]</t>
+  </si>
+  <si>
+    <t>Keerthana</t>
+  </si>
+  <si>
+    <t>keerthana@yuvabe.com</t>
+  </si>
+  <si>
+    <t>[{"id":"YB-87-M ","type":"Monitor"},{"id":"YB-74-L","type":"Laptop"},{"id":"YB-65-MS","type":"Mouse"},{"id":"YB-62-H","type":"Headphone"}]</t>
+  </si>
+  <si>
+    <t>Chittu</t>
+  </si>
+  <si>
+    <t>chittrarasu@yuvabe.com</t>
+  </si>
+  <si>
+    <t>[{"id":"YB-88-M ","type":"Monitor"},{"id":"YB-75-L","type":"Laptop"},{"id":"YB-66-MS","type":"Mouse"},{"id":"YB-63-H","type":"Headphone"}]</t>
+  </si>
+  <si>
+    <t>Safiq</t>
+  </si>
+  <si>
+    <t>safiq@yuvabe.com</t>
+  </si>
+  <si>
+    <t>[{"id":"YB-89-M ","type":"Monitor"},{"id":"YB-76-L","type":"Laptop"},{"id":"YB-67-MS","type":"Mouse"},{"id":"YB-64-H","type":"Headphone"}]</t>
   </si>
   <si>
     <t>Team Lead</t>
-  </si>
-  <si>
-    <t>Thamarai</t>
-  </si>
-  <si>
-    <t>thamaraikannan@yuvabe.com</t>
-  </si>
-  <si>
-    <t>[{"id":"YB-84-M ","type":"Monitor"},{"id":"YB-71-L","type":"Laptop"},{"id":"YB-62-MS","type":"Mouse"},{"id":"YB-59-H","type":"Headphone"}]</t>
-  </si>
-  <si>
-    <t>Bevlove</t>
-  </si>
-  <si>
-    <t>Abinesh</t>
-  </si>
-  <si>
-    <t>abineshkumar@yuvabe.com</t>
-  </si>
-  <si>
-    <t>[{"id":"YB-85-M ","type":"Monitor"},{"id":"YB-72-L","type":"Laptop"},{"id":"YB-63-MS","type":"Mouse"},{"id":"YB-60-H","type":"Headphone"}]</t>
-  </si>
-  <si>
-    <t>Sheik</t>
-  </si>
-  <si>
-    <t>sheik@yuvabe.com</t>
-  </si>
-  <si>
-    <t>[{"id":"YB-86-M ","type":"Monitor"},{"id":"YB-73-L","type":"Laptop"},{"id":"YB-64-MS","type":"Mouse"},{"id":"YB-61-H","type":"Headphone"}]</t>
-  </si>
-  <si>
-    <t>Keerthana</t>
-  </si>
-  <si>
-    <t>keerthana@yuvabe.com</t>
-  </si>
-  <si>
-    <t>[{"id":"YB-87-M ","type":"Monitor"},{"id":"YB-74-L","type":"Laptop"},{"id":"YB-65-MS","type":"Mouse"},{"id":"YB-62-H","type":"Headphone"}]</t>
-  </si>
-  <si>
-    <t>Chittu</t>
-  </si>
-  <si>
-    <t>chittrarasu@yuvabe.com</t>
-  </si>
-  <si>
-    <t>[{"id":"YB-88-M ","type":"Monitor"},{"id":"YB-75-L","type":"Laptop"},{"id":"YB-66-MS","type":"Mouse"},{"id":"YB-63-H","type":"Headphone"}]</t>
-  </si>
-  <si>
-    <t>Safiq</t>
-  </si>
-  <si>
-    <t>safiq@yuvabe.com</t>
-  </si>
-  <si>
-    <t>[{"id":"YB-89-M ","type":"Monitor"},{"id":"YB-76-L","type":"Laptop"},{"id":"YB-67-MS","type":"Mouse"},{"id":"YB-64-H","type":"Headphone"}]</t>
   </si>
 </sst>
 </file>
@@ -167,7 +170,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +182,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -209,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -220,14 +229,20 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,18 +552,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="26.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="123.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="123.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="13.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -602,7 +617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -615,7 +630,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -625,7 +640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -650,7 +665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -672,15 +687,15 @@
         <v>22</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -691,21 +706,21 @@
         <v>45294</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -716,16 +731,16 @@
         <v>45505</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -744,13 +759,13 @@
         <v>37</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -769,13 +784,13 @@
         <v>40</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -794,13 +809,13 @@
         <v>43</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -819,10 +834,10 @@
         <v>46</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/src/data_add/users.xlsx
+++ b/src/data_add/users.xlsx
@@ -52,7 +52,7 @@
     <t>Yuvabe</t>
   </si>
   <si>
-    <t xml:space="preserve">[{"id":"YB-99-M ","type":"Monitor"},{"id":"YB-92-L","type":"Laptop"},{"id":"YB-92-MS","type":"Mouse"},{"id":"YB-39-H","type":"Headphone"}]
+    <t xml:space="preserve">[{"id":"YB-99 ","type":"Monitor"},{"id":"YB-92-L","type":"Laptop"},{"id":"YB-92","type":"Mouse"},{"id":"YB-39-H","type":"Headphone"}]
 </t>
   </si>
   <si>
@@ -68,7 +68,8 @@
     <t>hp@yuvabe.com</t>
   </si>
   <si>
-    <t>[{"id":"YB-100-M ","type":"Monitor"},{"id":"YB-93-L","type":"Laptop"},{"id":"YB-93-MS","type":"Mouse"},{"id":"YB-80-H","type":"Headphone"}]</t>
+    <t xml:space="preserve">[{"id":"YB-19 ","type":"Monitor"},{"id":"YB-19","type":"Laptop"},{"id":"YB-19","type":"Mouse"},{"id":"YB-19","type":"Headphone"}]
+</t>
   </si>
   <si>
     <t>Mentor</t>
@@ -80,7 +81,7 @@
     <t>hariharan@quilt.ai</t>
   </si>
   <si>
-    <t xml:space="preserve">[{"id":"YB-11-M ","type":"Monitor"},{"id":"YB-11-L","type":"Laptop"},{"id":"YB-11-MS","type":"Mouse"},{"id":"YB-11-H","type":"Headphone"}]
+    <t xml:space="preserve">[{"id":"YB-92 ","type":"Monitor"},{"id":"YB-11-L","type":"Laptop"},{"id":"YB-11-MS","type":"Mouse"},{"id":"YB-11-H","type":"Headphone"}]
 </t>
   </si>
   <si>
@@ -170,7 +171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +183,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -232,8 +239,8 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -617,7 +624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="34.5">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
